--- a/EuGeneCiDM_results_final/CiDS_results_tables.xlsx
+++ b/EuGeneCiDM_results_final/CiDS_results_tables.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wschroeder2\Documents\EuGeneCiDM_results_final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wheat\Documents\GitHub\EuGeneCiDM\EuGeneCiDM_results_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5FFE24-4F19-4AA7-8F87-1B6782907C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-9420" yWindow="5364" windowWidth="17280" windowHeight="9024" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4_1_run" sheetId="1" r:id="rId1"/>
+    <sheet name="6_24_run_buffers" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="56">
   <si>
     <t>= interrupted</t>
   </si>
@@ -190,11 +192,23 @@
   <si>
     <t>mean</t>
   </si>
+  <si>
+    <t>BUFFER</t>
+  </si>
+  <si>
+    <t>Cd</t>
+  </si>
+  <si>
+    <t>Cu</t>
+  </si>
+  <si>
+    <t>Zn</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -690,7 +704,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -700,6 +713,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -775,7 +789,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -862,7 +875,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1011,7 +1023,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1401,7 +1412,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1549,7 +1559,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1846,7 +1855,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1933,7 +1941,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2082,7 +2089,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3994,7 +4000,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4024,7 +4036,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4056,7 +4074,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4372,25 +4396,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AG60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A36" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1"/>
-    <col min="20" max="20" width="12.28515625" customWidth="1"/>
-    <col min="25" max="25" width="12.28515625" customWidth="1"/>
-    <col min="30" max="33" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" customWidth="1"/>
+    <col min="20" max="20" width="12.33203125" customWidth="1"/>
+    <col min="25" max="25" width="12.33203125" customWidth="1"/>
+    <col min="30" max="33" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="28" t="s">
         <v>38</v>
       </c>
@@ -4422,7 +4446,7 @@
       <c r="AF2" s="29"/>
       <c r="AG2" s="30"/>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B3" s="48"/>
       <c r="C3" s="49" t="s">
         <v>2</v>
@@ -4485,7 +4509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B4" s="47" t="s">
         <v>1</v>
       </c>
@@ -4566,7 +4590,7 @@
         <v>-17.68 (699)</v>
       </c>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B5" s="39" t="s">
         <v>5</v>
       </c>
@@ -4649,7 +4673,7 @@
         <v>-5.66 (560)</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B6" s="39" t="s">
         <v>31</v>
       </c>
@@ -4730,7 +4754,7 @@
         <v>-4.24 (589)</v>
       </c>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B7" s="39" t="s">
         <v>6</v>
       </c>
@@ -4811,7 +4835,7 @@
         <v>20.78 (91)</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B8" s="39" t="s">
         <v>7</v>
       </c>
@@ -4892,7 +4916,7 @@
         <v>37.04 (47)</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B9" s="39" t="s">
         <v>8</v>
       </c>
@@ -4973,7 +4997,7 @@
         <v>-29.7 (640)</v>
       </c>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B10" s="39" t="s">
         <v>9</v>
       </c>
@@ -5053,7 +5077,7 @@
         <v>43.78 (56)</v>
       </c>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B11" s="39" t="s">
         <v>10</v>
       </c>
@@ -5140,7 +5164,7 @@
         <v>-10.61 (511)</v>
       </c>
     </row>
-    <row r="12" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="42" t="s">
         <v>11</v>
       </c>
@@ -5220,7 +5244,7 @@
         <v>24.75 (536)</v>
       </c>
     </row>
-    <row r="13" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
@@ -5228,7 +5252,7 @@
       <c r="T13" s="7"/>
       <c r="Y13" s="7"/>
     </row>
-    <row r="14" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="25" t="s">
         <v>42</v>
       </c>
@@ -5260,7 +5284,7 @@
       <c r="AF14" s="26"/>
       <c r="AG14" s="27"/>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B15" s="53"/>
       <c r="C15" s="54" t="s">
         <v>2</v>
@@ -5320,7 +5344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B16" s="52" t="s">
         <v>1</v>
       </c>
@@ -5397,7 +5421,7 @@
         <v>5.61 (8)</v>
       </c>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B17" s="44" t="s">
         <v>5</v>
       </c>
@@ -5474,7 +5498,7 @@
         <v>13.47 (9)</v>
       </c>
     </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B18" s="44" t="s">
         <v>31</v>
       </c>
@@ -5551,7 +5575,7 @@
         <v>13.47 (6)</v>
       </c>
     </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B19" s="44" t="s">
         <v>6</v>
       </c>
@@ -5579,7 +5603,7 @@
       <c r="O19" t="s">
         <v>6</v>
       </c>
-      <c r="P19" s="79">
+      <c r="P19" s="78">
         <v>301</v>
       </c>
       <c r="Q19" s="7">
@@ -5628,7 +5652,7 @@
         <v>43.78 (227)</v>
       </c>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B20" s="44" t="s">
         <v>7</v>
       </c>
@@ -5656,7 +5680,7 @@
       <c r="O20" t="s">
         <v>7</v>
       </c>
-      <c r="P20" s="79">
+      <c r="P20" s="78">
         <v>790</v>
       </c>
       <c r="Q20" s="7">
@@ -5705,7 +5729,7 @@
         <v>60.61 (654)</v>
       </c>
     </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B21" s="44" t="s">
         <v>8</v>
       </c>
@@ -5782,7 +5806,7 @@
         <v>-2 (4)</v>
       </c>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B22" s="44" t="s">
         <v>9</v>
       </c>
@@ -5859,7 +5883,7 @@
         <v>71.84 (77)</v>
       </c>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B23" s="44" t="s">
         <v>10</v>
       </c>
@@ -5893,7 +5917,7 @@
       <c r="Q23" s="7">
         <v>482</v>
       </c>
-      <c r="R23" s="80">
+      <c r="R23" s="79">
         <v>317</v>
       </c>
       <c r="T23" t="s">
@@ -5936,7 +5960,7 @@
         <v>13.47 (38)</v>
       </c>
     </row>
-    <row r="24" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="40" t="s">
         <v>11</v>
       </c>
@@ -5964,13 +5988,13 @@
       <c r="O24" t="s">
         <v>11</v>
       </c>
-      <c r="P24" s="79">
+      <c r="P24" s="78">
         <v>320</v>
       </c>
       <c r="Q24" s="7">
         <v>645</v>
       </c>
-      <c r="R24" s="80">
+      <c r="R24" s="79">
         <v>526</v>
       </c>
       <c r="T24" t="s">
@@ -6013,13 +6037,13 @@
         <v>40.41 (0)</v>
       </c>
     </row>
-    <row r="25" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AD25" s="12"/>
       <c r="AE25" s="12"/>
       <c r="AF25" s="12"/>
       <c r="AG25" s="12"/>
     </row>
-    <row r="26" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="28" t="s">
         <v>43</v>
       </c>
@@ -6042,7 +6066,7 @@
       <c r="AA26" s="29"/>
       <c r="AB26" s="30"/>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B27" s="48"/>
       <c r="C27" s="49" t="s">
         <v>2</v>
@@ -6082,15 +6106,15 @@
       <c r="AB27" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="AD27" s="79" t="s">
+      <c r="AD27" s="78" t="s">
         <v>46</v>
       </c>
       <c r="AE27" s="12"/>
-      <c r="AF27" s="79" t="s">
+      <c r="AF27" s="78" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B28" s="47" t="s">
         <v>1</v>
       </c>
@@ -6114,7 +6138,7 @@
         <f t="shared" ref="L28:M28" si="8">1-L4</f>
         <v>0.16000000000000003</v>
       </c>
-      <c r="M28" s="76">
+      <c r="M28" s="75">
         <f t="shared" si="8"/>
         <v>0.17800000000000005</v>
       </c>
@@ -6153,7 +6177,7 @@
         <v>57.817837678407727</v>
       </c>
     </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B29" s="39" t="s">
         <v>5</v>
       </c>
@@ -6177,7 +6201,7 @@
         <f t="shared" si="9"/>
         <v>0.28600000000000003</v>
       </c>
-      <c r="M29" s="76">
+      <c r="M29" s="75">
         <f t="shared" si="9"/>
         <v>0.39400000000000002</v>
       </c>
@@ -6216,7 +6240,7 @@
         <v>143.00258326236397</v>
       </c>
     </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B30" s="39" t="s">
         <v>31</v>
       </c>
@@ -6240,7 +6264,7 @@
         <f t="shared" si="9"/>
         <v>0.29800000000000004</v>
       </c>
-      <c r="M30" s="76">
+      <c r="M30" s="75">
         <f t="shared" si="9"/>
         <v>0.42200000000000004</v>
       </c>
@@ -6277,7 +6301,7 @@
         <v>85.184745583956243</v>
       </c>
     </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B31" s="39" t="s">
         <v>6</v>
       </c>
@@ -6301,7 +6325,7 @@
         <f t="shared" si="9"/>
         <v>0.83025210084033607</v>
       </c>
-      <c r="M31" s="76">
+      <c r="M31" s="75">
         <f t="shared" si="9"/>
         <v>0.87462686567164183</v>
       </c>
@@ -6330,7 +6354,7 @@
         <v>10001.5</v>
       </c>
     </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B32" s="39" t="s">
         <v>7</v>
       </c>
@@ -6354,7 +6378,7 @@
         <f t="shared" si="9"/>
         <v>0.68300000000000005</v>
       </c>
-      <c r="M32" s="76">
+      <c r="M32" s="75">
         <f t="shared" si="9"/>
         <v>0.57200000000000006</v>
       </c>
@@ -6393,7 +6417,7 @@
         <v>121.95264284801578</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B33" s="39" t="s">
         <v>8</v>
       </c>
@@ -6417,7 +6441,7 @@
         <f t="shared" si="9"/>
         <v>0.81499999999999995</v>
       </c>
-      <c r="M33" s="76">
+      <c r="M33" s="75">
         <f t="shared" si="9"/>
         <v>0.87</v>
       </c>
@@ -6446,7 +6470,7 @@
         <v>231.61</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B34" s="39" t="s">
         <v>9</v>
       </c>
@@ -6470,7 +6494,7 @@
         <f t="shared" si="9"/>
         <v>0.60699999999999998</v>
       </c>
-      <c r="M34" s="76">
+      <c r="M34" s="75">
         <f t="shared" si="9"/>
         <v>0.55600000000000005</v>
       </c>
@@ -6499,7 +6523,7 @@
         <v>3180.24</v>
       </c>
     </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B35" s="39" t="s">
         <v>10</v>
       </c>
@@ -6523,7 +6547,7 @@
         <f t="shared" si="9"/>
         <v>0.54960091220068419</v>
       </c>
-      <c r="M35" s="76">
+      <c r="M35" s="75">
         <f t="shared" si="9"/>
         <v>0.4661764705882353</v>
       </c>
@@ -6552,7 +6576,7 @@
         <v>3210.01</v>
       </c>
     </row>
-    <row r="36" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="42" t="s">
         <v>11</v>
       </c>
@@ -6568,15 +6592,15 @@
       <c r="J36" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="K36" s="77">
+      <c r="K36" s="76">
         <f t="shared" si="9"/>
         <v>0.9116809116809117</v>
       </c>
-      <c r="L36" s="77">
+      <c r="L36" s="76">
         <f t="shared" si="9"/>
         <v>0.93886462882096067</v>
       </c>
-      <c r="M36" s="78">
+      <c r="M36" s="77">
         <f t="shared" si="9"/>
         <v>0.91161178509532059</v>
       </c>
@@ -6605,10 +6629,10 @@
         <v>7576.86</v>
       </c>
     </row>
-    <row r="37" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="T37" s="7"/>
     </row>
-    <row r="38" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="28" t="s">
         <v>44</v>
       </c>
@@ -6619,7 +6643,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B39" s="48"/>
       <c r="C39" s="60" t="s">
         <v>2</v>
@@ -6640,7 +6664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B40" s="47" t="s">
         <v>1</v>
       </c>
@@ -6663,7 +6687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B41" s="39" t="s">
         <v>5</v>
       </c>
@@ -6686,7 +6710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B42" s="39" t="s">
         <v>31</v>
       </c>
@@ -6706,11 +6730,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B43" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="73"/>
+      <c r="C43" s="64"/>
       <c r="D43" s="64"/>
       <c r="E43" s="66"/>
       <c r="G43" t="s">
@@ -6729,11 +6753,11 @@
         <v>227</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B44" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="74"/>
+      <c r="C44" s="73"/>
       <c r="D44" s="63"/>
       <c r="E44" s="65"/>
       <c r="G44" t="s">
@@ -6752,7 +6776,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B45" s="39" t="s">
         <v>8</v>
       </c>
@@ -6772,7 +6796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B46" s="39" t="s">
         <v>9</v>
       </c>
@@ -6792,11 +6816,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B47" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="74"/>
+      <c r="C47" s="73"/>
       <c r="D47" s="64"/>
       <c r="E47" s="66"/>
       <c r="T47" t="s">
@@ -6812,11 +6836,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="75"/>
+      <c r="C48" s="74"/>
       <c r="D48" s="67"/>
       <c r="E48" s="68"/>
       <c r="T48" t="s">
@@ -6832,17 +6856,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.3">
       <c r="T50" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C51" s="3"/>
       <c r="D51" s="1" t="s">
         <v>0</v>
@@ -6857,7 +6881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C52" s="2"/>
       <c r="D52" s="1" t="s">
         <v>12</v>
@@ -6878,7 +6902,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C53" s="4"/>
       <c r="D53" s="1" t="s">
         <v>13</v>
@@ -6899,7 +6923,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C54" s="5"/>
       <c r="D54" s="1" t="s">
         <v>14</v>
@@ -6920,7 +6944,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C55" s="10"/>
       <c r="D55" s="1" t="s">
         <v>36</v>
@@ -6941,7 +6965,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C56" s="11"/>
       <c r="D56" s="1" t="s">
         <v>34</v>
@@ -6962,7 +6986,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:23" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
         <v>35</v>
       </c>
@@ -6982,7 +7006,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.3">
       <c r="T58" t="s">
         <v>9</v>
       </c>
@@ -6999,7 +7023,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.3">
       <c r="T59" t="s">
         <v>10</v>
       </c>
@@ -7016,7 +7040,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.3">
       <c r="T60" t="s">
         <v>11</v>
       </c>
@@ -7276,4 +7300,479 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BAD770-1636-4466-83A3-E95B5262AF81}">
+  <dimension ref="B1:Y16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="G2" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="30"/>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+      <c r="E4">
+        <v>1000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="80">
+        <f>M4/(M4+M8)</f>
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="I4" s="80">
+        <f t="shared" ref="I4:J4" si="0">N4/(N4+N8)</f>
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="J4" s="80">
+        <f t="shared" si="0"/>
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="L4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4">
+        <v>735</v>
+      </c>
+      <c r="N4">
+        <v>711</v>
+      </c>
+      <c r="O4">
+        <v>784</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4">
+        <v>4.49</v>
+      </c>
+      <c r="S4">
+        <v>4.49</v>
+      </c>
+      <c r="T4">
+        <v>4.49</v>
+      </c>
+      <c r="V4" t="s">
+        <v>52</v>
+      </c>
+      <c r="W4">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="X4">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="Y4">
+        <v>0.58099999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
+      <c r="G6" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="30"/>
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>26</v>
+      </c>
+      <c r="V6" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="27"/>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="X7" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y7" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="L8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8">
+        <v>265</v>
+      </c>
+      <c r="N8">
+        <v>289</v>
+      </c>
+      <c r="O8">
+        <v>216</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>52</v>
+      </c>
+      <c r="R8">
+        <v>6.37</v>
+      </c>
+      <c r="S8">
+        <v>6.37</v>
+      </c>
+      <c r="T8">
+        <v>5.61</v>
+      </c>
+      <c r="V8" t="s">
+        <v>52</v>
+      </c>
+      <c r="W8">
+        <v>7.3369999999999997</v>
+      </c>
+      <c r="X8">
+        <v>17.094000000000001</v>
+      </c>
+      <c r="Y8">
+        <v>9.1880000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30"/>
+      <c r="G10" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="30"/>
+      <c r="Q10" t="s">
+        <v>32</v>
+      </c>
+      <c r="V10" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="30"/>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="X11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y11" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="G12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="80">
+        <f>1-H4</f>
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="I12" s="80">
+        <f t="shared" ref="I12:J12" si="1">1-I4</f>
+        <v>0.28900000000000003</v>
+      </c>
+      <c r="J12" s="80">
+        <f t="shared" si="1"/>
+        <v>0.21599999999999997</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>52</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="V12" t="s">
+        <v>52</v>
+      </c>
+      <c r="W12">
+        <v>24.236000000000001</v>
+      </c>
+      <c r="X12">
+        <v>154.03299999999999</v>
+      </c>
+      <c r="Y12">
+        <v>63.040999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
+      <c r="Q14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="S15" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="T15" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="Q16" t="s">
+        <v>52</v>
+      </c>
+      <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="S16">
+        <v>2</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/EuGeneCiDM_results_final/CiDS_results_tables.xlsx
+++ b/EuGeneCiDM_results_final/CiDS_results_tables.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wheat\Documents\GitHub\EuGeneCiDM\EuGeneCiDM_results_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5FFE24-4F19-4AA7-8F87-1B6782907C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB8C4DF-4B74-424F-B104-1BA78BEAB693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9420" yWindow="5364" windowWidth="17280" windowHeight="9024" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4_1_run" sheetId="1" r:id="rId1"/>
     <sheet name="6_24_run_buffers" sheetId="2" r:id="rId2"/>
+    <sheet name="1_input_tests" sheetId="3" r:id="rId3"/>
+    <sheet name="2_input_tests" sheetId="4" r:id="rId4"/>
+    <sheet name="3_input_tests" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="56">
   <si>
     <t>= interrupted</t>
   </si>
@@ -2348,6 +2351,348 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>BUFFER Optimality Ratios</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'6_24_run_buffers'!$H$11:$J$11</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Cd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Zn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'6_24_run_buffers'!$H$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.73499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78400000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AAB7-482E-B9A4-6F37593D9218}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'6_24_run_buffers'!$H$11:$J$11</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Cd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Zn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'6_24_run_buffers'!$H$12:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.26500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21599999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AAB7-482E-B9A4-6F37593D9218}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="10"/>
+        <c:overlap val="100"/>
+        <c:axId val="742645920"/>
+        <c:axId val="742646336"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="742645920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="742646336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="742646336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="742645920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2468,6 +2813,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -3479,6 +3864,511 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4092,6 +4982,49 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>517489</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>61462</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17C2FC2D-419D-4AED-AC6C-1132C492535C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4399,8 +5332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AG60"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="Y23" zoomScale="108" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AD27" sqref="AD27:AF32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7304,10 +8237,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BAD770-1636-4466-83A3-E95B5262AF81}">
-  <dimension ref="B1:Y16"/>
+  <dimension ref="B1:Y20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7751,6 +8684,13 @@
       <c r="T15" s="12" t="s">
         <v>55</v>
       </c>
+      <c r="V15" s="78" t="s">
+        <v>46</v>
+      </c>
+      <c r="W15" s="12"/>
+      <c r="X15" s="78" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
@@ -7771,8 +8711,123 @@
       <c r="T16">
         <v>0</v>
       </c>
+      <c r="V16" t="s">
+        <v>47</v>
+      </c>
+      <c r="W16" s="43">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="X16">
+        <f>28.6*(LOG(W16)+1)</f>
+        <v>21.10643753313612</v>
+      </c>
+    </row>
+    <row r="17" spans="22:24" x14ac:dyDescent="0.3">
+      <c r="V17" t="s">
+        <v>48</v>
+      </c>
+      <c r="W17" s="43">
+        <v>24.236000000000001</v>
+      </c>
+      <c r="X17">
+        <f>28.6*(LOG(W17)+1)</f>
+        <v>68.195582993380484</v>
+      </c>
+    </row>
+    <row r="18" spans="22:24" x14ac:dyDescent="0.3">
+      <c r="V18" t="s">
+        <v>50</v>
+      </c>
+      <c r="W18" s="12"/>
+      <c r="X18">
+        <f>X17-X16</f>
+        <v>47.089145460244367</v>
+      </c>
+    </row>
+    <row r="20" spans="22:24" x14ac:dyDescent="0.3">
+      <c r="V20" t="s">
+        <v>51</v>
+      </c>
+      <c r="W20" s="43">
+        <v>7.3369999999999997</v>
+      </c>
+      <c r="X20">
+        <f>28.6*(LOG(W20)+1)</f>
+        <v>53.353829645538539</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="W16">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="0.59999389629810485"/>
+        <color theme="5" tint="0.59999389629810485"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W20">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="0.59999389629810485"/>
+        <color theme="5" tint="0.59999389629810485"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W17">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="0.59999389629810485"/>
+        <color theme="5" tint="0.59999389629810485"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB26AC0-DC32-4077-9DD8-629958DC744F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F774B6-5B3C-4223-B538-9941B6E3CEE8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA14B324-5BCC-4D4F-80B1-392E3F184544}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/EuGeneCiDM_results_final/CiDS_results_tables.xlsx
+++ b/EuGeneCiDM_results_final/CiDS_results_tables.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wheat\Documents\GitHub\EuGeneCiDM\EuGeneCiDM_results_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB8C4DF-4B74-424F-B104-1BA78BEAB693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D135DE-AF56-44E7-A057-BE4ADF935CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="4_1_run" sheetId="1" r:id="rId1"/>
-    <sheet name="6_24_run_buffers" sheetId="2" r:id="rId2"/>
-    <sheet name="1_input_tests" sheetId="3" r:id="rId3"/>
-    <sheet name="2_input_tests" sheetId="4" r:id="rId4"/>
-    <sheet name="3_input_tests" sheetId="5" r:id="rId5"/>
+    <sheet name="2-input_circuits" sheetId="1" r:id="rId1"/>
+    <sheet name="buffer_circuits" sheetId="2" r:id="rId2"/>
+    <sheet name="test_db_circuits" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="55">
   <si>
     <t>= interrupted</t>
   </si>
@@ -91,18 +89,6 @@
     <t>R-NIMPLY</t>
   </si>
   <si>
-    <t>note: all fatal errors for solver</t>
-  </si>
-  <si>
-    <t>status 10: Error Solver Failure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Need to create some error </t>
-  </si>
-  <si>
-    <t>handling?</t>
-  </si>
-  <si>
     <t>After 24 hours</t>
   </si>
   <si>
@@ -143,12 +129,6 @@
   </si>
   <si>
     <t>= cancelled by crane for no reason</t>
-  </si>
-  <si>
-    <t>error is "stepd: error *** JOB XXXXXXXX on XXXXX CANCELLED AT XXXX-XX-XXTXX:XX:XX"</t>
-  </si>
-  <si>
-    <t>=killed in crane error</t>
   </si>
   <si>
     <t>MAXIMAL AFTER MINIMAL?</t>
@@ -207,12 +187,27 @@
   <si>
     <t>Zn</t>
   </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>=killed due to reaching time limit</t>
+  </si>
+  <si>
+    <t>protocol image calculations</t>
+  </si>
+  <si>
+    <t>article image calculations</t>
+  </si>
+  <si>
+    <t>NOT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,8 +215,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,8 +279,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -581,11 +596,245 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -716,7 +965,78 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -898,7 +1218,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'4_1_run'!$J$4:$J$12</c:f>
+              <c:f>'2-input_circuits'!$J$4:$J$12</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -933,7 +1253,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4_1_run'!$K$4:$K$12</c:f>
+              <c:f>'2-input_circuits'!$K$4:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1046,7 +1366,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'4_1_run'!$J$4:$J$12</c:f>
+              <c:f>'2-input_circuits'!$J$4:$J$12</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -1081,7 +1401,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4_1_run'!$K$28:$K$36</c:f>
+              <c:f>'2-input_circuits'!$K$28:$K$36</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1435,7 +1755,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'4_1_run'!$J$4:$J$12</c:f>
+              <c:f>'2-input_circuits'!$J$4:$J$12</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -1470,7 +1790,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4_1_run'!$L$4:$L$12</c:f>
+              <c:f>'2-input_circuits'!$L$4:$L$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1582,7 +1902,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'4_1_run'!$J$4:$J$12</c:f>
+              <c:f>'2-input_circuits'!$J$4:$J$12</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -1617,7 +1937,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4_1_run'!$L$28:$L$36</c:f>
+              <c:f>'2-input_circuits'!$L$28:$L$36</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1964,7 +2284,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'4_1_run'!$J$4:$J$12</c:f>
+              <c:f>'2-input_circuits'!$J$4:$J$12</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -1999,7 +2319,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4_1_run'!$M$4:$M$12</c:f>
+              <c:f>'2-input_circuits'!$M$4:$M$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2112,7 +2432,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'4_1_run'!$J$4:$J$12</c:f>
+              <c:f>'2-input_circuits'!$J$4:$J$12</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -2147,7 +2467,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4_1_run'!$M$28:$M$36</c:f>
+              <c:f>'2-input_circuits'!$M$28:$M$36</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2436,7 +2756,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'6_24_run_buffers'!$H$11:$J$11</c:f>
+              <c:f>buffer_circuits!$H$11:$J$11</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2453,7 +2773,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'6_24_run_buffers'!$H$4:$J$4</c:f>
+              <c:f>buffer_circuits!$H$4:$J$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2490,7 +2810,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'6_24_run_buffers'!$H$11:$J$11</c:f>
+              <c:f>buffer_circuits!$H$11:$J$11</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2507,7 +2827,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'6_24_run_buffers'!$H$12:$J$12</c:f>
+              <c:f>buffer_circuits!$H$12:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2526,6 +2846,420 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-AAB7-482E-B9A4-6F37593D9218}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="10"/>
+        <c:overlap val="100"/>
+        <c:axId val="742645920"/>
+        <c:axId val="742646336"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="742645920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="742646336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="742646336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="742645920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Optimality Ratios</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2-input_circuits'!$J$4:$J$12</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>AND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NIMPLY</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CNI</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HALF ADDER</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NAND</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NOR</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>OR</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>XNOR</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>XOR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>test_db_circuits!$F$4:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5419847328244275</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18518518518518517</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27083333333333331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91419141914191415</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26126126126126126</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.48717948717948717</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.27058823529411763</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D61B-463D-B2F6-33EF41DDE083}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2-input_circuits'!$J$4:$J$12</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>AND</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NIMPLY</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CNI</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HALF ADDER</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NAND</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NOR</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>OR</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>XNOR</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>XOR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>test_db_circuits!$F$28:$F$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.0000000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77142857142857146</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4580152671755725</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81481481481481488</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72916666666666674</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5808580858085848E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.73873873873873874</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.51282051282051277</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.72941176470588243</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D61B-463D-B2F6-33EF41DDE083}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2853,6 +3587,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -4369,6 +5143,511 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4995,15 +6274,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>517489</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>205069</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>61462</xdr:rowOff>
+      <xdr:rowOff>23362</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5011,6 +6290,49 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17C2FC2D-419D-4AED-AC6C-1132C492535C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>101239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B69EDA-298A-4236-8CD1-ADCE73E9B358}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5332,8 +6654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AG60"/>
   <sheetViews>
-    <sheetView topLeftCell="Y23" zoomScale="108" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AD27" sqref="AD27:AF32"/>
+    <sheetView topLeftCell="F13" zoomScale="108" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5349,31 +6671,31 @@
     <row r="1" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="28" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
       <c r="E2" s="30"/>
       <c r="J2" s="28" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K2" s="29"/>
       <c r="L2" s="29"/>
       <c r="M2" s="30"/>
       <c r="O2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y2" s="28" t="s">
         <v>23</v>
-      </c>
-      <c r="T2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y2" s="28" t="s">
-        <v>27</v>
       </c>
       <c r="Z2" s="29"/>
       <c r="AA2" s="29"/>
       <c r="AB2" s="30"/>
       <c r="AD2" s="28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AE2" s="29"/>
       <c r="AF2" s="29"/>
@@ -5391,7 +6713,7 @@
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J3" s="48"/>
       <c r="K3" s="60" t="s">
@@ -5537,7 +6859,7 @@
         <v>1000</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J5" s="39" t="s">
         <v>5</v>
@@ -5608,7 +6930,7 @@
     </row>
     <row r="6" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B6" s="39" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C6" s="37">
         <v>1000</v>
@@ -5621,7 +6943,7 @@
       </c>
       <c r="G6" s="1"/>
       <c r="J6" s="39" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K6" s="45">
         <f t="shared" si="4"/>
@@ -5636,7 +6958,7 @@
         <v>0.57799999999999996</v>
       </c>
       <c r="O6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P6" s="8">
         <v>705</v>
@@ -5660,7 +6982,7 @@
         <v>-4.24</v>
       </c>
       <c r="Y6" s="39" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Z6" s="43">
         <v>1.1100000000000001</v>
@@ -6187,31 +7509,31 @@
     </row>
     <row r="14" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="25" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
       <c r="E14" s="27"/>
       <c r="J14" s="28" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K14" s="29"/>
       <c r="L14" s="29"/>
       <c r="M14" s="30"/>
       <c r="O14" t="s">
+        <v>20</v>
+      </c>
+      <c r="T14" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y14" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="T14" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y14" s="25" t="s">
-        <v>28</v>
       </c>
       <c r="Z14" s="26"/>
       <c r="AA14" s="26"/>
       <c r="AB14" s="27"/>
       <c r="AD14" s="25" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AE14" s="26"/>
       <c r="AF14" s="26"/>
@@ -6330,13 +7652,13 @@
         <v>1</v>
       </c>
       <c r="Z16" s="14">
-        <v>46.2</v>
+        <v>46.152999999999999</v>
       </c>
       <c r="AA16" s="32">
-        <v>54.18</v>
+        <v>54.128999999999998</v>
       </c>
       <c r="AB16" s="33">
-        <v>42.5</v>
+        <v>42.457000000000001</v>
       </c>
       <c r="AD16" s="47" t="s">
         <v>1</v>
@@ -6407,13 +7729,13 @@
         <v>5</v>
       </c>
       <c r="Z17" s="43">
-        <v>74.08</v>
+        <v>74.007999999999996</v>
       </c>
       <c r="AA17" s="16">
-        <v>61.1</v>
+        <v>61.04</v>
       </c>
       <c r="AB17" s="31">
-        <v>96.61</v>
+        <v>96.516999999999996</v>
       </c>
       <c r="AD17" s="39" t="s">
         <v>5</v>
@@ -6433,7 +7755,7 @@
     </row>
     <row r="18" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B18" s="44" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C18" s="43">
         <v>2</v>
@@ -6445,7 +7767,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="39" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K18" s="43">
         <v>4</v>
@@ -6457,7 +7779,7 @@
         <v>4</v>
       </c>
       <c r="O18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P18" s="7">
         <v>295</v>
@@ -6481,16 +7803,16 @@
         <v>13.47</v>
       </c>
       <c r="Y18" s="44" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Z18" s="43">
-        <v>62.53</v>
+        <v>62.465000000000003</v>
       </c>
       <c r="AA18" s="16">
-        <v>56.24</v>
+        <v>56.185000000000002</v>
       </c>
       <c r="AB18" s="31">
-        <v>56.76</v>
+        <v>56.706000000000003</v>
       </c>
       <c r="AD18" s="39" t="s">
         <v>16</v>
@@ -6561,13 +7883,13 @@
         <v>6</v>
       </c>
       <c r="Z19" s="43">
-        <v>1836.87</v>
+        <v>1831.2660000000001</v>
       </c>
       <c r="AA19" s="16">
-        <v>1007.99</v>
+        <v>1006.297</v>
       </c>
       <c r="AB19" s="31">
-        <v>1776.34</v>
+        <v>1771.039</v>
       </c>
       <c r="AD19" s="39" t="s">
         <v>6</v>
@@ -6638,13 +7960,13 @@
         <v>7</v>
       </c>
       <c r="Z20" s="43">
-        <v>382.33</v>
+        <v>381.947</v>
       </c>
       <c r="AA20" s="16">
-        <v>364.65</v>
+        <v>364.286</v>
       </c>
       <c r="AB20" s="31">
-        <v>258.08999999999997</v>
+        <v>257.83300000000003</v>
       </c>
       <c r="AD20" s="39" t="s">
         <v>7</v>
@@ -6715,13 +8037,13 @@
         <v>8</v>
       </c>
       <c r="Z21" s="43">
-        <v>37.53</v>
+        <v>37.497</v>
       </c>
       <c r="AA21" s="16">
-        <v>20.25</v>
+        <v>20.233000000000001</v>
       </c>
       <c r="AB21" s="31">
-        <v>55.3</v>
+        <v>55.244</v>
       </c>
       <c r="AD21" s="39" t="s">
         <v>8</v>
@@ -6792,13 +8114,13 @@
         <v>9</v>
       </c>
       <c r="Z22" s="43">
-        <v>283.26</v>
+        <v>282.97199999999998</v>
       </c>
       <c r="AA22" s="16">
-        <v>248.57</v>
+        <v>248.32</v>
       </c>
       <c r="AB22" s="31">
-        <v>244.04</v>
+        <v>243.791</v>
       </c>
       <c r="AD22" s="39" t="s">
         <v>9</v>
@@ -6869,13 +8191,13 @@
         <v>10</v>
       </c>
       <c r="Z23" s="43">
-        <v>809.54</v>
+        <v>808.44299999999998</v>
       </c>
       <c r="AA23" s="16">
-        <v>681.9</v>
+        <v>681.12599999999998</v>
       </c>
       <c r="AB23" s="31">
-        <v>877.64</v>
+        <v>876.34900000000005</v>
       </c>
       <c r="AD23" s="39" t="s">
         <v>10</v>
@@ -6946,13 +8268,13 @@
         <v>11</v>
       </c>
       <c r="Z24" s="38">
-        <v>1701.5</v>
+        <v>1696.6559999999999</v>
       </c>
       <c r="AA24" s="21">
-        <v>871.15</v>
+        <v>869.87900000000002</v>
       </c>
       <c r="AB24" s="22">
-        <v>1030.31</v>
+        <v>1028.5239999999999</v>
       </c>
       <c r="AD24" s="40" t="s">
         <v>11</v>
@@ -6978,22 +8300,22 @@
     </row>
     <row r="26" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="28" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
       <c r="E26" s="30"/>
       <c r="J26" s="28" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K26" s="29"/>
       <c r="L26" s="29"/>
       <c r="M26" s="30"/>
       <c r="T26" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y26" s="28" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Z26" s="29"/>
       <c r="AA26" s="29"/>
@@ -7040,11 +8362,11 @@
         <v>4</v>
       </c>
       <c r="AD27" s="78" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AE27" s="12"/>
       <c r="AF27" s="78" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="2:33" x14ac:dyDescent="0.3">
@@ -7100,7 +8422,7 @@
         <v>210.08</v>
       </c>
       <c r="AD28" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AE28" s="43">
         <v>10.51</v>
@@ -7163,7 +8485,7 @@
         <v>623.21</v>
       </c>
       <c r="AD29" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AE29" s="43">
         <v>10002.08</v>
@@ -7175,7 +8497,7 @@
     </row>
     <row r="30" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B30" s="39" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C30" s="37">
         <v>5</v>
@@ -7187,7 +8509,7 @@
         <v>5</v>
       </c>
       <c r="J30" s="39" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K30" s="57">
         <f t="shared" si="9"/>
@@ -7214,7 +8536,7 @@
         <v>589</v>
       </c>
       <c r="Y30" s="39" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Z30" s="43">
         <v>393.94</v>
@@ -7226,7 +8548,7 @@
         <v>335.72</v>
       </c>
       <c r="AD30" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AE30" s="12"/>
       <c r="AF30">
@@ -7340,7 +8662,7 @@
         <v>1950.73</v>
       </c>
       <c r="AD32" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AE32" s="43">
         <v>1836.87</v>
@@ -7567,13 +8889,13 @@
     </row>
     <row r="38" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="28" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C38" s="29"/>
       <c r="D38" s="29"/>
       <c r="E38" s="30"/>
       <c r="T38" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="2:28" x14ac:dyDescent="0.3">
@@ -7604,9 +8926,6 @@
       <c r="C40" s="71"/>
       <c r="D40" s="69"/>
       <c r="E40" s="70"/>
-      <c r="G40" t="s">
-        <v>17</v>
-      </c>
       <c r="T40" t="s">
         <v>1</v>
       </c>
@@ -7627,9 +8946,6 @@
       <c r="C41" s="72"/>
       <c r="D41" s="63"/>
       <c r="E41" s="65"/>
-      <c r="G41" t="s">
-        <v>18</v>
-      </c>
       <c r="T41" t="s">
         <v>5</v>
       </c>
@@ -7645,7 +8961,7 @@
     </row>
     <row r="42" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B42" s="39" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C42" s="72"/>
       <c r="D42" s="63"/>
@@ -7670,9 +8986,6 @@
       <c r="C43" s="64"/>
       <c r="D43" s="64"/>
       <c r="E43" s="66"/>
-      <c r="G43" t="s">
-        <v>19</v>
-      </c>
       <c r="T43" t="s">
         <v>6</v>
       </c>
@@ -7693,9 +9006,6 @@
       <c r="C44" s="73"/>
       <c r="D44" s="63"/>
       <c r="E44" s="65"/>
-      <c r="G44" t="s">
-        <v>20</v>
-      </c>
       <c r="T44" t="s">
         <v>7</v>
       </c>
@@ -7796,7 +9106,7 @@
     </row>
     <row r="50" spans="3:23" x14ac:dyDescent="0.3">
       <c r="T50" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="3:23" x14ac:dyDescent="0.3">
@@ -7880,7 +9190,7 @@
     <row r="55" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C55" s="10"/>
       <c r="D55" s="1" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="T55" t="s">
         <v>6</v>
@@ -7901,7 +9211,7 @@
     <row r="56" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C56" s="11"/>
       <c r="D56" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="T56" t="s">
         <v>7</v>
@@ -7920,9 +9230,6 @@
       </c>
     </row>
     <row r="57" spans="3:23" x14ac:dyDescent="0.3">
-      <c r="D57" t="s">
-        <v>35</v>
-      </c>
       <c r="T57" t="s">
         <v>8</v>
       </c>
@@ -8237,482 +9544,500 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BAD770-1636-4466-83A3-E95B5262AF81}">
-  <dimension ref="B1:Y20"/>
+  <dimension ref="B1:Y25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
-      <c r="G2" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="L2" t="s">
+      <c r="B2" s="98" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100"/>
+      <c r="G2" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="93"/>
+      <c r="L2" s="80" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="82"/>
+      <c r="Q2" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="82"/>
+      <c r="V2" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V2" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="30"/>
+      <c r="W2" s="99"/>
+      <c r="X2" s="99"/>
+      <c r="Y2" s="100"/>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>55</v>
+      <c r="B3" s="83"/>
+      <c r="C3" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="83"/>
+      <c r="H3" s="101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="102" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="103" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="83"/>
+      <c r="M3" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="86" t="s">
+        <v>49</v>
       </c>
       <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="T3" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="X3" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y3" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4">
+      <c r="Q3" s="83"/>
+      <c r="R3" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="S3" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="T3" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="V3" s="83"/>
+      <c r="W3" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="X3" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y3" s="86" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="88">
         <v>1000</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="88">
         <v>1000</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="89">
         <v>1000</v>
       </c>
-      <c r="G4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="80">
+      <c r="G4" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="104">
         <f>M4/(M4+M8)</f>
         <v>0.73499999999999999</v>
       </c>
-      <c r="I4" s="80">
+      <c r="I4" s="104">
         <f t="shared" ref="I4:J4" si="0">N4/(N4+N8)</f>
         <v>0.71099999999999997</v>
       </c>
-      <c r="J4" s="80">
+      <c r="J4" s="105">
         <f t="shared" si="0"/>
         <v>0.78400000000000003</v>
       </c>
-      <c r="L4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4">
+      <c r="L4" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="88">
         <v>735</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="88">
         <v>711</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="89">
         <v>784</v>
       </c>
-      <c r="Q4" t="s">
-        <v>52</v>
-      </c>
-      <c r="R4">
+      <c r="Q4" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" s="88">
         <v>4.49</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="88">
         <v>4.49</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="89">
         <v>4.49</v>
       </c>
-      <c r="V4" t="s">
-        <v>52</v>
-      </c>
-      <c r="W4">
+      <c r="V4" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="W4" s="88">
         <v>0.54700000000000004</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="88">
         <v>0.57799999999999996</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="89">
         <v>0.58099999999999996</v>
       </c>
     </row>
     <row r="5" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="27"/>
-      <c r="G6" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="30"/>
-      <c r="L6" t="s">
+      <c r="B6" s="98" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="100"/>
+      <c r="G6" s="98" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="100"/>
+      <c r="L6" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="82"/>
+      <c r="Q6" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" s="81"/>
+      <c r="S6" s="81"/>
+      <c r="T6" s="82"/>
+      <c r="V6" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" t="s">
-        <v>26</v>
-      </c>
-      <c r="V6" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="27"/>
+      <c r="W6" s="92"/>
+      <c r="X6" s="92"/>
+      <c r="Y6" s="93"/>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B7" s="12"/>
-      <c r="C7" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>55</v>
+      <c r="B7" s="83"/>
+      <c r="C7" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="83"/>
+      <c r="H7" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="83"/>
+      <c r="M7" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="86" t="s">
+        <v>49</v>
       </c>
       <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="S7" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="T7" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="X7" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y7" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8">
+      <c r="Q7" s="83"/>
+      <c r="R7" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="S7" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="T7" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="V7" s="83"/>
+      <c r="W7" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="X7" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y7" s="86" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="88">
         <v>1</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="88">
         <v>1</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="89">
         <v>1</v>
       </c>
-      <c r="G8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8">
+      <c r="G8" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="88">
         <v>5</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="88">
         <v>5</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="89">
         <v>5</v>
       </c>
-      <c r="L8" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8">
+      <c r="L8" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="88">
         <v>265</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="88">
         <v>289</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="89">
         <v>216</v>
       </c>
-      <c r="Q8" t="s">
-        <v>52</v>
-      </c>
-      <c r="R8">
+      <c r="Q8" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="R8" s="88">
         <v>6.37</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="88">
         <v>6.37</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="89">
         <v>5.61</v>
       </c>
-      <c r="V8" t="s">
-        <v>52</v>
-      </c>
-      <c r="W8">
+      <c r="V8" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="W8" s="88">
         <v>7.3369999999999997</v>
       </c>
-      <c r="X8">
+      <c r="X8" s="88">
         <v>17.094000000000001</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" s="89">
         <v>9.1880000000000006</v>
       </c>
     </row>
     <row r="9" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="30"/>
-      <c r="G10" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="30"/>
-      <c r="Q10" t="s">
-        <v>32</v>
-      </c>
-      <c r="V10" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="W10" s="29"/>
-      <c r="X10" s="29"/>
-      <c r="Y10" s="30"/>
+      <c r="B10" s="98" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="100"/>
+      <c r="G10" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="100"/>
+      <c r="Q10" s="90" t="s">
+        <v>28</v>
+      </c>
+      <c r="R10" s="81"/>
+      <c r="S10" s="81"/>
+      <c r="T10" s="82"/>
+      <c r="V10" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="W10" s="92"/>
+      <c r="X10" s="92"/>
+      <c r="Y10" s="93"/>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
-      <c r="C11" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="S11" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="T11" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="X11" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y11" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12">
+      <c r="B11" s="83"/>
+      <c r="C11" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="83"/>
+      <c r="H11" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="S11" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="T11" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="V11" s="94"/>
+      <c r="W11" s="95" t="s">
+        <v>47</v>
+      </c>
+      <c r="X11" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y11" s="97" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="88">
         <v>5</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="88">
         <v>6</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="89">
         <v>6</v>
       </c>
-      <c r="G12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="80">
+      <c r="G12" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="106">
         <f>1-H4</f>
         <v>0.26500000000000001</v>
       </c>
-      <c r="I12" s="80">
+      <c r="I12" s="106">
         <f t="shared" ref="I12:J12" si="1">1-I4</f>
         <v>0.28900000000000003</v>
       </c>
-      <c r="J12" s="80">
+      <c r="J12" s="107">
         <f t="shared" si="1"/>
         <v>0.21599999999999997</v>
       </c>
-      <c r="Q12" t="s">
-        <v>52</v>
-      </c>
-      <c r="R12">
+      <c r="Q12" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="R12" s="88">
         <v>0</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="88">
         <v>0</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="89">
         <v>1</v>
       </c>
-      <c r="V12" t="s">
-        <v>52</v>
-      </c>
-      <c r="W12">
+      <c r="V12" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="W12" s="88">
         <v>24.236000000000001</v>
       </c>
-      <c r="X12">
+      <c r="X12" s="88">
         <v>154.03299999999999</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" s="89">
         <v>63.040999999999997</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
-      <c r="Q14" t="s">
-        <v>33</v>
-      </c>
+      <c r="B14" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="100"/>
+      <c r="Q14" s="90" t="s">
+        <v>29</v>
+      </c>
+      <c r="R14" s="81"/>
+      <c r="S14" s="81"/>
+      <c r="T14" s="82"/>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
-      <c r="C15" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="S15" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="T15" s="12" t="s">
-        <v>55</v>
+      <c r="B15" s="83"/>
+      <c r="C15" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q15" s="83"/>
+      <c r="R15" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="S15" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="T15" s="86" t="s">
+        <v>49</v>
       </c>
       <c r="V15" s="78" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="W15" s="12"/>
       <c r="X15" s="78" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="Q16" t="s">
-        <v>52</v>
-      </c>
-      <c r="R16">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="108"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="110"/>
+      <c r="Q16" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="R16" s="88">
         <v>2</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="88">
         <v>2</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="89">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="W16" s="43">
         <v>0.54700000000000004</v>
@@ -8722,9 +10047,9 @@
         <v>21.10643753313612</v>
       </c>
     </row>
-    <row r="17" spans="22:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="17:24" x14ac:dyDescent="0.3">
       <c r="V17" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="W17" s="43">
         <v>24.236000000000001</v>
@@ -8734,9 +10059,9 @@
         <v>68.195582993380484</v>
       </c>
     </row>
-    <row r="18" spans="22:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="17:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="V18" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="W18" s="12"/>
       <c r="X18">
@@ -8744,9 +10069,27 @@
         <v>47.089145460244367</v>
       </c>
     </row>
-    <row r="20" spans="22:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="17:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q19" s="112" t="s">
+        <v>34</v>
+      </c>
+      <c r="R19" s="81"/>
+      <c r="S19" s="81"/>
+      <c r="T19" s="82"/>
+    </row>
+    <row r="20" spans="17:24" x14ac:dyDescent="0.3">
+      <c r="Q20" s="83"/>
+      <c r="R20" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="S20" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="T20" s="86" t="s">
+        <v>49</v>
+      </c>
       <c r="V20" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="W20" s="43">
         <v>7.3369999999999997</v>
@@ -8756,9 +10099,64 @@
         <v>53.353829645538539</v>
       </c>
     </row>
+    <row r="21" spans="17:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q21" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="R21" s="88" t="str">
+        <f>CONCATENATE(R4," (",R12,")")</f>
+        <v>4.49 (0)</v>
+      </c>
+      <c r="S21" s="88" t="str">
+        <f t="shared" ref="S21:T21" si="2">CONCATENATE(S4," (",S12,")")</f>
+        <v>4.49 (0)</v>
+      </c>
+      <c r="T21" s="89" t="str">
+        <f t="shared" si="2"/>
+        <v>4.49 (1)</v>
+      </c>
+    </row>
+    <row r="22" spans="17:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="17:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q23" s="111" t="s">
+        <v>35</v>
+      </c>
+      <c r="R23" s="81"/>
+      <c r="S23" s="81"/>
+      <c r="T23" s="82"/>
+    </row>
+    <row r="24" spans="17:24" x14ac:dyDescent="0.3">
+      <c r="Q24" s="83"/>
+      <c r="R24" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="S24" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="T24" s="86" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="17:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q25" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="R25" s="88" t="str">
+        <f>CONCATENATE(R8," (",R16,")")</f>
+        <v>6.37 (2)</v>
+      </c>
+      <c r="S25" s="88" t="str">
+        <f t="shared" ref="S25:T25" si="3">CONCATENATE(S8," (",S16,")")</f>
+        <v>6.37 (2)</v>
+      </c>
+      <c r="T25" s="89" t="str">
+        <f t="shared" si="3"/>
+        <v>5.61 (0)</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="W16">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8768,7 +10166,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W20">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8778,12 +10176,102 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W17">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color theme="9" tint="0.59999389629810485"/>
         <color theme="5" tint="0.59999389629810485"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:J8">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <color theme="8" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:E8">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <color theme="8" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:E4">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <color theme="9" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:E12">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <color theme="8" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:J12">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <color theme="9" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:J4">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <color theme="9" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W4:Y4">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <color theme="9" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W8:Y8">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <color theme="9" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W12:Y12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <color theme="9" tint="0.39997558519241921"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -8793,41 +10281,1633 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB26AC0-DC32-4077-9DD8-629958DC744F}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F774B6-5B3C-4223-B538-9941B6E3CEE8}">
+  <dimension ref="B1:W61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F774B6-5B3C-4223-B538-9941B6E3CEE8}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="12"/>
+    <col min="2" max="2" width="11.21875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="12"/>
+    <col min="5" max="5" width="11.6640625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="15" style="12" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="12"/>
+    <col min="8" max="8" width="11.33203125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="20.21875" style="12" customWidth="1"/>
+    <col min="10" max="13" width="8.88671875" style="12"/>
+    <col min="14" max="18" width="8.88671875" style="79"/>
+    <col min="19" max="16384" width="8.88671875" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B2" s="116" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="117"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="79" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B3" s="118"/>
+      <c r="C3" s="119" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="78"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="79"/>
+      <c r="I3" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="R3" s="78" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B4" s="120" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="119">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="78"/>
+      <c r="E4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="123">
+        <f t="shared" ref="F4:F13" si="0">I4/(I4+I16)</f>
+        <v>0.999</v>
+      </c>
+      <c r="G4" s="114"/>
+      <c r="H4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="115">
+        <v>999</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="115">
+        <v>1.06</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="115">
+        <v>55.872999999999998</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" s="78" t="str">
+        <f t="shared" ref="R4:R12" si="1">CONCATENATE(L4," (",L28,")")</f>
+        <v>1.06 (643)</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B5" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="122">
+        <v>385</v>
+      </c>
+      <c r="D5" s="78"/>
+      <c r="E5" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="123">
+        <f t="shared" si="0"/>
+        <v>0.22857142857142856</v>
+      </c>
+      <c r="G5" s="114"/>
+      <c r="H5" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="115">
+        <v>88</v>
+      </c>
+      <c r="K5" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="115">
+        <v>2.63</v>
+      </c>
+      <c r="N5" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" s="78">
+        <v>55.542999999999999</v>
+      </c>
+      <c r="Q5" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="R5" s="78" t="str">
+        <f t="shared" si="1"/>
+        <v>2.63 (230)</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B6" s="118" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="119">
+        <v>131</v>
+      </c>
+      <c r="D6" s="78"/>
+      <c r="E6" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="123">
+        <f t="shared" si="0"/>
+        <v>0.5419847328244275</v>
+      </c>
+      <c r="G6" s="114"/>
+      <c r="H6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="115">
+        <v>71</v>
+      </c>
+      <c r="J6" s="79"/>
+      <c r="K6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="115">
+        <v>-22.1</v>
+      </c>
+      <c r="N6" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" s="78">
+        <v>92.575999999999993</v>
+      </c>
+      <c r="Q6" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="R6" s="78" t="str">
+        <f t="shared" si="1"/>
+        <v>-22.1 (70)</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B7" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="119">
+        <v>27</v>
+      </c>
+      <c r="D7" s="78"/>
+      <c r="E7" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="123">
+        <f t="shared" si="0"/>
+        <v>0.18518518518518517</v>
+      </c>
+      <c r="G7" s="114"/>
+      <c r="H7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="78">
+        <v>5</v>
+      </c>
+      <c r="J7" s="79"/>
+      <c r="K7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="78">
+        <v>18.72</v>
+      </c>
+      <c r="N7" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="78">
+        <v>1186.0219999999999</v>
+      </c>
+      <c r="Q7" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="R7" s="78" t="str">
+        <f t="shared" si="1"/>
+        <v>18.72 (1)</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B8" s="118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="119">
+        <v>96</v>
+      </c>
+      <c r="D8" s="78"/>
+      <c r="E8" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="123">
+        <f t="shared" si="0"/>
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="G8" s="114"/>
+      <c r="H8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="78">
+        <v>26</v>
+      </c>
+      <c r="J8" s="79"/>
+      <c r="K8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="78">
+        <v>37.47</v>
+      </c>
+      <c r="N8" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" s="78">
+        <v>87.481999999999999</v>
+      </c>
+      <c r="Q8" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="R8" s="78" t="str">
+        <f t="shared" si="1"/>
+        <v>37.47 (15)</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B9" s="118" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="119">
+        <v>303</v>
+      </c>
+      <c r="D9" s="78"/>
+      <c r="E9" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="123">
+        <f t="shared" si="0"/>
+        <v>0.91419141914191415</v>
+      </c>
+      <c r="G9" s="114"/>
+      <c r="H9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="78">
+        <v>277</v>
+      </c>
+      <c r="J9" s="79"/>
+      <c r="K9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="78">
+        <v>-20.69</v>
+      </c>
+      <c r="N9" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9" s="78">
+        <v>55.277000000000001</v>
+      </c>
+      <c r="Q9" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="R9" s="78" t="str">
+        <f t="shared" si="1"/>
+        <v>-20.69 (0)</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B10" s="118" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="119">
+        <v>111</v>
+      </c>
+      <c r="D10" s="78"/>
+      <c r="E10" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="123">
+        <f t="shared" si="0"/>
+        <v>0.26126126126126126</v>
+      </c>
+      <c r="G10" s="114"/>
+      <c r="H10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="78">
+        <v>29</v>
+      </c>
+      <c r="J10" s="79"/>
+      <c r="K10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="78">
+        <v>44.09</v>
+      </c>
+      <c r="N10" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" s="78">
+        <v>69.093999999999994</v>
+      </c>
+      <c r="Q10" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="R10" s="78" t="str">
+        <f t="shared" si="1"/>
+        <v>44.09 (8)</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B11" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="119">
+        <v>117</v>
+      </c>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="123">
+        <f t="shared" si="0"/>
+        <v>0.48717948717948717</v>
+      </c>
+      <c r="G11" s="79"/>
+      <c r="H11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="78">
+        <v>57</v>
+      </c>
+      <c r="J11" s="79"/>
+      <c r="K11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="78">
+        <v>-6.65</v>
+      </c>
+      <c r="N11" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="78">
+        <v>60.984000000000002</v>
+      </c>
+      <c r="Q11" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="R11" s="78" t="str">
+        <f t="shared" si="1"/>
+        <v>-6.65 (63)</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B12" s="118" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="119">
+        <v>85</v>
+      </c>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="123">
+        <f t="shared" si="0"/>
+        <v>0.27058823529411763</v>
+      </c>
+      <c r="G12" s="79"/>
+      <c r="H12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="78">
+        <v>23</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="78">
+        <v>28.54</v>
+      </c>
+      <c r="N12" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="O12" s="78">
+        <v>117.23699999999999</v>
+      </c>
+      <c r="Q12" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="R12" s="78" t="str">
+        <f t="shared" si="1"/>
+        <v>28.54 (46)</v>
+      </c>
+      <c r="S12" s="79"/>
+      <c r="T12" s="79"/>
+    </row>
+    <row r="13" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="78"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="115"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B14" s="116" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="117"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="79"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" s="79" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="79" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B15" s="118"/>
+      <c r="C15" s="119" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="78"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="78"/>
+      <c r="I15" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="L15" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="O15" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="R15" s="78" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B16" s="120" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="119">
+        <v>2</v>
+      </c>
+      <c r="D16" s="78"/>
+      <c r="E16" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="78">
+        <v>3</v>
+      </c>
+      <c r="G16" s="78"/>
+      <c r="H16" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="115">
+        <v>1</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="115">
+        <v>7.39</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="O16" s="115">
+        <v>510.96199999999999</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="R16" s="78" t="str">
+        <f t="shared" ref="R16:R24" si="2">CONCATENATE(L16," (",L41,")")</f>
+        <v>7.39 (0)</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B17" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="122">
+        <v>2</v>
+      </c>
+      <c r="D17" s="78"/>
+      <c r="E17" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="115">
+        <v>3</v>
+      </c>
+      <c r="G17" s="78"/>
+      <c r="H17" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="115">
+        <v>297</v>
+      </c>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="L17" s="115">
+        <v>7.39</v>
+      </c>
+      <c r="N17" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="O17" s="79">
+        <v>1528.7719999999999</v>
+      </c>
+      <c r="Q17" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="R17" s="78" t="str">
+        <f t="shared" si="2"/>
+        <v>7.39 (326)</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B18" s="118" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="119">
+        <v>2</v>
+      </c>
+      <c r="D18" s="78"/>
+      <c r="E18" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="78">
+        <v>3</v>
+      </c>
+      <c r="G18" s="78"/>
+      <c r="H18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="115">
+        <v>60</v>
+      </c>
+      <c r="J18" s="79"/>
+      <c r="K18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" s="115">
+        <v>2.44</v>
+      </c>
+      <c r="N18" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="O18" s="78">
+        <v>4571.5290000000005</v>
+      </c>
+      <c r="Q18" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="R18" s="78" t="str">
+        <f t="shared" si="2"/>
+        <v>2.44 (5)</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B19" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="119">
+        <v>4</v>
+      </c>
+      <c r="D19" s="78"/>
+      <c r="E19" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="78">
+        <v>7</v>
+      </c>
+      <c r="G19" s="78"/>
+      <c r="H19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="78">
+        <v>22</v>
+      </c>
+      <c r="J19" s="79"/>
+      <c r="K19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" s="78">
+        <v>84.49</v>
+      </c>
+      <c r="N19" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="O19" s="78">
+        <v>6518.6130000000003</v>
+      </c>
+      <c r="Q19" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="R19" s="78" t="str">
+        <f t="shared" si="2"/>
+        <v>84.49 (19)</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B20" s="118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="119">
+        <v>2</v>
+      </c>
+      <c r="D20" s="78"/>
+      <c r="E20" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="78">
+        <v>3</v>
+      </c>
+      <c r="G20" s="78"/>
+      <c r="H20" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="78">
+        <v>70</v>
+      </c>
+      <c r="J20" s="79"/>
+      <c r="K20" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" s="78">
+        <v>63.53</v>
+      </c>
+      <c r="N20" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="O20" s="78">
+        <v>6213.66</v>
+      </c>
+      <c r="Q20" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="R20" s="78" t="str">
+        <f t="shared" si="2"/>
+        <v>63.53 (4)</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B21" s="118" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="119">
+        <v>2</v>
+      </c>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="78">
+        <v>5</v>
+      </c>
+      <c r="G21" s="79"/>
+      <c r="H21" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="78">
+        <v>26</v>
+      </c>
+      <c r="J21" s="79"/>
+      <c r="K21" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="78">
+        <v>-5.35</v>
+      </c>
+      <c r="N21" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="78">
+        <v>1778.1489999999999</v>
+      </c>
+      <c r="Q21" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="78" t="str">
+        <f t="shared" si="2"/>
+        <v>-5.35 (1)</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B22" s="118" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="119">
+        <v>2</v>
+      </c>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="78">
+        <v>3</v>
+      </c>
+      <c r="G22" s="79"/>
+      <c r="H22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="78">
+        <v>82</v>
+      </c>
+      <c r="J22" s="79"/>
+      <c r="K22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="78">
+        <v>84.95</v>
+      </c>
+      <c r="N22" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="O22" s="78">
+        <v>5298.9319999999998</v>
+      </c>
+      <c r="Q22" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="R22" s="78" t="str">
+        <f t="shared" si="2"/>
+        <v>84.95 (84)</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B23" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="119">
+        <v>2</v>
+      </c>
+      <c r="D23" s="78"/>
+      <c r="E23" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="78">
+        <v>3</v>
+      </c>
+      <c r="G23" s="79"/>
+      <c r="H23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="78">
+        <v>60</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="78">
+        <v>22.16</v>
+      </c>
+      <c r="N23" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="O23" s="78">
+        <v>4065.9749999999999</v>
+      </c>
+      <c r="Q23" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="R23" s="78" t="str">
+        <f t="shared" si="2"/>
+        <v>22.16 (87)</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B24" s="118" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="119">
+        <v>2</v>
+      </c>
+      <c r="D24" s="78"/>
+      <c r="E24" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="78">
+        <v>3</v>
+      </c>
+      <c r="G24" s="114"/>
+      <c r="H24" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="78">
+        <v>62</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="78">
+        <v>81.260000000000005</v>
+      </c>
+      <c r="N24" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="O24" s="78">
+        <v>6561.4369999999999</v>
+      </c>
+      <c r="Q24" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="R24" s="78" t="str">
+        <f t="shared" si="2"/>
+        <v>81.26 (74)</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="79"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="114"/>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B26" s="116" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="117"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="79"/>
+      <c r="G26" s="114"/>
+      <c r="K26" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N26" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q26" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="U26" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="V26" s="79"/>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B27" s="118"/>
+      <c r="C27" s="119" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="78"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="114"/>
+      <c r="L27" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="O27" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q27" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="S27" s="78" t="s">
+        <v>43</v>
+      </c>
+      <c r="U27" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="V27" s="79"/>
+      <c r="W27" s="78" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B28" s="120" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="119">
+        <v>5</v>
+      </c>
+      <c r="D28" s="78"/>
+      <c r="E28" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="114">
+        <f t="shared" ref="F28:F37" si="3">1-F4</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="G28" s="114"/>
+      <c r="K28" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L28" s="12">
+        <v>643</v>
+      </c>
+      <c r="N28" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="O28" s="78">
+        <v>10038.115</v>
+      </c>
+      <c r="Q28" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="R28" s="78">
+        <v>117.23699999999999</v>
+      </c>
+      <c r="S28" s="12">
+        <f>28.6*(LOG(R28)+1)</f>
+        <v>87.775250324592776</v>
+      </c>
+      <c r="U28" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="V28" s="78">
+        <v>117.23699999999999</v>
+      </c>
+      <c r="W28" s="12">
+        <f>42.9*(LOG(V28)+1)</f>
+        <v>131.66287548688916</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B29" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="115">
+        <v>4</v>
+      </c>
+      <c r="D29" s="78"/>
+      <c r="E29" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="114">
+        <f t="shared" si="3"/>
+        <v>0.77142857142857146</v>
+      </c>
+      <c r="G29" s="114"/>
+      <c r="K29" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="L29" s="12">
+        <v>230</v>
+      </c>
+      <c r="N29" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="O29" s="79">
+        <v>10041.326999999999</v>
+      </c>
+      <c r="Q29" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="R29" s="78">
+        <v>10103.781999999999</v>
+      </c>
+      <c r="S29" s="12">
+        <f>28.6*(LOG(R29)+1)</f>
+        <v>143.1282414641008</v>
+      </c>
+      <c r="U29" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="V29" s="78">
+        <v>10103.781999999999</v>
+      </c>
+      <c r="W29" s="12">
+        <f>42.9*(LOG(V29)+1)</f>
+        <v>214.69236219615118</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B30" s="118" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="119">
+        <v>3</v>
+      </c>
+      <c r="D30" s="78"/>
+      <c r="E30" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="114">
+        <f t="shared" si="3"/>
+        <v>0.4580152671755725</v>
+      </c>
+      <c r="G30" s="114"/>
+      <c r="K30" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L30" s="12">
+        <v>70</v>
+      </c>
+      <c r="N30" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="O30" s="78">
+        <v>10077.474</v>
+      </c>
+      <c r="Q30" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="S30" s="12">
+        <f>S29-S28</f>
+        <v>55.352991139508021</v>
+      </c>
+      <c r="U30" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="V30" s="79"/>
+      <c r="W30" s="12">
+        <f>W29-W28</f>
+        <v>83.029486709262017</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B31" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="119">
+        <v>10</v>
+      </c>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="114">
+        <f t="shared" si="3"/>
+        <v>0.81481481481481488</v>
+      </c>
+      <c r="G31" s="79"/>
+      <c r="K31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L31" s="79">
+        <v>1</v>
+      </c>
+      <c r="N31" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="O31" s="78">
+        <v>10040.67</v>
+      </c>
+      <c r="U31" s="79"/>
+      <c r="V31" s="79"/>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B32" s="118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="119">
+        <v>3</v>
+      </c>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="114">
+        <f t="shared" si="3"/>
+        <v>0.72916666666666674</v>
+      </c>
+      <c r="G32" s="79"/>
+      <c r="K32" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L32" s="79">
+        <v>15</v>
+      </c>
+      <c r="N32" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="O32" s="78">
+        <v>10065.388999999999</v>
+      </c>
+      <c r="Q32" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="R32" s="78">
+        <v>6561.4369999999999</v>
+      </c>
+      <c r="S32" s="12">
+        <f>28.6*(LOG(R32)+1)</f>
+        <v>137.76617034986901</v>
+      </c>
+      <c r="U32" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="V32" s="78">
+        <v>6561.4369999999999</v>
+      </c>
+      <c r="W32" s="12">
+        <f>42.9*(LOG(V32)+1)</f>
+        <v>206.64925552480349</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B33" s="118" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="119">
+        <v>9</v>
+      </c>
+      <c r="D33" s="79"/>
+      <c r="E33" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="114">
+        <f t="shared" si="3"/>
+        <v>8.5808580858085848E-2</v>
+      </c>
+      <c r="G33" s="79"/>
+      <c r="K33" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L33" s="79">
+        <v>0</v>
+      </c>
+      <c r="N33" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="O33" s="78">
+        <v>10040.254999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B34" s="118" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="119">
+        <v>4</v>
+      </c>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="114">
+        <f t="shared" si="3"/>
+        <v>0.73873873873873874</v>
+      </c>
+      <c r="G34" s="79"/>
+      <c r="K34" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L34" s="79">
+        <v>8</v>
+      </c>
+      <c r="N34" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="O34" s="78">
+        <v>10091.6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B35" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="119">
+        <v>10</v>
+      </c>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="114">
+        <f t="shared" si="3"/>
+        <v>0.51282051282051277</v>
+      </c>
+      <c r="G35" s="79"/>
+      <c r="K35" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L35" s="79">
+        <v>63</v>
+      </c>
+      <c r="N35" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="O35" s="78">
+        <v>10115.686</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B36" s="118" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="119">
+        <v>7</v>
+      </c>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="114">
+        <f t="shared" si="3"/>
+        <v>0.72941176470588243</v>
+      </c>
+      <c r="G36" s="79"/>
+      <c r="K36" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L36" s="79">
+        <v>46</v>
+      </c>
+      <c r="N36" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="O36" s="78">
+        <v>10103.781999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="79"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="79"/>
+      <c r="K37" s="79"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B38" s="116" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="117"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B39" s="118"/>
+      <c r="C39" s="119" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="79"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="79"/>
+      <c r="K39" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B40" s="120" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="65"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="79"/>
+      <c r="L40" s="78" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B41" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="121"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="79"/>
+      <c r="K41" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L41" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B42" s="118" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="121"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="79"/>
+      <c r="K42" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L42" s="12">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B43" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="121"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="79"/>
+      <c r="K43" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L43" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B44" s="118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="121"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="79"/>
+      <c r="G44" s="79"/>
+      <c r="K44" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L44" s="79">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B45" s="118" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="121"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="79"/>
+      <c r="G45" s="79"/>
+      <c r="K45" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L45" s="79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B46" s="118" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="121"/>
+      <c r="D46" s="113"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="79"/>
+      <c r="G46" s="79"/>
+      <c r="K46" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L46" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B47" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="121"/>
+      <c r="D47" s="113"/>
+      <c r="E47" s="79"/>
+      <c r="F47" s="79"/>
+      <c r="G47" s="79"/>
+      <c r="K47" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L47" s="79">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B48" s="118" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="121"/>
+      <c r="D48" s="113"/>
+      <c r="E48" s="79"/>
+      <c r="F48" s="79"/>
+      <c r="G48" s="79"/>
+      <c r="K48" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L48" s="79">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B49" s="79"/>
+      <c r="C49" s="79"/>
+      <c r="D49" s="113"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="79"/>
+      <c r="G49" s="79"/>
+      <c r="K49" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L49" s="79">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B50" s="79"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="113"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="79"/>
+      <c r="G50" s="79"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B51" s="79"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="113"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="79"/>
+      <c r="G51" s="79"/>
+      <c r="K51" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B52" s="79"/>
+      <c r="C52" s="79"/>
+      <c r="D52" s="79"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="79"/>
+      <c r="G52" s="79"/>
+      <c r="L52" s="78" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B53" s="79"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="79"/>
+      <c r="F53" s="79"/>
+      <c r="G53" s="79"/>
+      <c r="K53" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L53" s="12" t="str">
+        <f t="shared" ref="L53:L61" si="4">IF(L41&lt;L28,"NO","YES")</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B54" s="79"/>
+      <c r="C54" s="79"/>
+      <c r="D54" s="79"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="79"/>
+      <c r="G54" s="79"/>
+      <c r="K54" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="L54" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B55" s="79"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="79"/>
+      <c r="F55" s="79"/>
+      <c r="G55" s="79"/>
+      <c r="K55" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L55" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B56" s="79"/>
+      <c r="C56" s="79"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="79"/>
+      <c r="K56" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L56" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B57" s="79"/>
+      <c r="C57" s="79"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="79"/>
+      <c r="K57" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L57" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B58" s="79"/>
+      <c r="C58" s="79"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="79"/>
+      <c r="K58" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B59" s="79"/>
+      <c r="C59" s="79"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="79"/>
+      <c r="K59" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L59" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K60" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L60" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K61" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L61" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>YES</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA14B324-5BCC-4D4F-80B1-392E3F184544}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>